--- a/TODO_Projet_Java_Updated.xlsx
+++ b/TODO_Projet_Java_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/lucas_schwindenhammer_edu_ece_fr/Documents/Ing3/Semestre2/POO Java/projet-java-recrutement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7F7113-766C-4C69-8DB2-C4D4CEFF44A2}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>Module</t>
   </si>
@@ -258,6 +258,93 @@
   </si>
   <si>
     <t>Tests finaux + Débogage</t>
+  </si>
+  <si>
+    <t>Détail de l'étape / Fonctionnalité à implémenter</t>
+  </si>
+  <si>
+    <t>Créer la classe représentant les candidats avec leurs informations personnelles et d'identification.</t>
+  </si>
+  <si>
+    <t>Créer la classe représentant les recruteurs avec leurs informations d'entreprise.</t>
+  </si>
+  <si>
+    <t>Créer la classe représentant les offres d'emploi (intitulé, description, salaire, etc.).</t>
+  </si>
+  <si>
+    <t>Créer la classe utilisateur commune pour l'héritage (candidats et recruteurs).</t>
+  </si>
+  <si>
+    <t>Gérer les candidatures (postulation d'un candidat à une offre).</t>
+  </si>
+  <si>
+    <t>DAO pour accéder aux données des candidats (CRUD).</t>
+  </si>
+  <si>
+    <t>DAO pour accéder aux données des recruteurs (CRUD).</t>
+  </si>
+  <si>
+    <t>DAO pour accéder aux offres : ajout, suppression, modification, recherche d'offres.</t>
+  </si>
+  <si>
+    <t>DAO pour gérer les candidatures : postuler, consulter l'historique.</t>
+  </si>
+  <si>
+    <t>DAO pour calculer des statistiques utiles au reporting (offres populaires, nombre de candidatures, etc.).</t>
+  </si>
+  <si>
+    <t>Gérer l'authentification (connexion / inscription) dans le système.</t>
+  </si>
+  <si>
+    <t>Permettre aux candidats de postuler, consulter l'historique et voir leurs candidatures.</t>
+  </si>
+  <si>
+    <t>Permettre aux recruteurs de créer, modifier et supprimer des offres.</t>
+  </si>
+  <si>
+    <t>Permettre la gestion d'une candidature côté métier.</t>
+  </si>
+  <si>
+    <t>Permettre l'accès aux données statistiques nécessaires aux reporting.</t>
+  </si>
+  <si>
+    <t>Interface de connexion utilisateur (candidat ou recruteur).</t>
+  </si>
+  <si>
+    <t>Interface d'inscription d'un nouvel utilisateur (candidat ou recruteur).</t>
+  </si>
+  <si>
+    <t>Interface candidat : rechercher, postuler à une offre, voir l'historique des candidatures.</t>
+  </si>
+  <si>
+    <t>Interface recruteur : gérer ses offres (CRUD) et consulter les statistiques.</t>
+  </si>
+  <si>
+    <t>Interface de reporting : afficher graphiques et statistiques.</t>
+  </si>
+  <si>
+    <t>Interface dédiée aux candidatures (formulaire de candidature, liste des candidatures).</t>
+  </si>
+  <si>
+    <t>Classe Main pour lancer l'application et gérer la navigation.</t>
+  </si>
+  <si>
+    <t>Gestion de la connexion JDBC à la base de données.</t>
+  </si>
+  <si>
+    <t>Script SQL pour créer les tables et insérer les données initiales (6 enregistrements minimum par table).</t>
+  </si>
+  <si>
+    <t>Implémenter les graphiques pour le module de reporting avec JFreeChart.</t>
+  </si>
+  <si>
+    <t>Créer la navigation fluide entre les interfaces.</t>
+  </si>
+  <si>
+    <t>Ajouter la documentation de toutes les classes et méthodes du projet au format Javadoc.</t>
+  </si>
+  <si>
+    <t>Temps estimé (jours)</t>
   </si>
 </sst>
 </file>
@@ -316,7 +403,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -625,377 +716,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="E6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="E9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="E10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="E11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="E20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="E21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="E22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="E25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="E26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="E27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E5F719-14BD-4FE5-A358-A0B23E18168B}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/TODO_Projet_Java_Updated.xlsx
+++ b/TODO_Projet_Java_Updated.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/lucas_schwindenhammer_edu_ece_fr/Documents/Ing3/Semestre2/POO Java/projet-java-recrutement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7F7113-766C-4C69-8DB2-C4D4CEFF44A2}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27AC3B36-C21D-CD49-82F7-2EEA2315D0E1}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
     <sheet name="Planning" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$F$1:$F$28</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
   <si>
     <t>Module</t>
   </si>
@@ -132,9 +135,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>À intégrer</t>
   </si>
   <si>
     <t>À compléter</t>
@@ -403,11 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -427,6 +423,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,621 +722,601 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16384" max="16384" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="E4" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="2">
+    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="F1:F28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1345,146 +1329,146 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/TODO_Projet_Java_Updated.xlsx
+++ b/TODO_Projet_Java_Updated.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/lucas_schwindenhammer_edu_ece_fr/Documents/Ing3/Semestre2/POO Java/projet-java-recrutement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27AC3B36-C21D-CD49-82F7-2EEA2315D0E1}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B390D47-9FC0-4AC3-AFA2-DBD1F35B04DC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
     <sheet name="Planning" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$F$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$C$1:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
   <si>
     <t>Module</t>
   </si>
@@ -141,12 +154,6 @@
   </si>
   <si>
     <t>Manquant</t>
-  </si>
-  <si>
-    <t>À développer</t>
-  </si>
-  <si>
-    <t>Manquante</t>
   </si>
   <si>
     <t>À vérifier</t>
@@ -423,14 +430,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,22 +721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16384" max="16384" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="94.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,16 +749,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -771,13 +769,13 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -788,13 +786,13 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -805,13 +803,13 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -822,13 +820,13 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -839,19 +837,19 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -862,13 +860,13 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -879,13 +877,13 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -896,19 +894,19 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -916,22 +914,22 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -942,19 +940,19 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -965,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -979,22 +977,22 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1005,19 +1003,19 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1028,19 +1026,19 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1051,19 +1049,19 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1074,13 +1072,13 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1091,13 +1089,13 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1108,19 +1106,19 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1128,22 +1126,22 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1151,22 +1149,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1174,22 +1172,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1200,13 +1198,13 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1217,13 +1215,13 @@
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1231,22 +1229,22 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1257,19 +1255,19 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1277,22 +1275,22 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1300,23 +1298,23 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1325,150 +1323,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E5F719-14BD-4FE5-A358-A0B23E18168B}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/TODO_Projet_Java_Updated.xlsx
+++ b/TODO_Projet_Java_Updated.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/lucas_schwindenhammer_edu_ece_fr/Documents/Ing3/Semestre2/POO Java/projet-java-recrutement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B390D47-9FC0-4AC3-AFA2-DBD1F35B04DC}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB2EA7C-8E76-465F-BB81-F086AA0F3BEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
-    <sheet name="Planning" sheetId="2" r:id="rId2"/>
+    <sheet name="Reste à faire" sheetId="3" r:id="rId2"/>
+    <sheet name="Notation PowerPoint" sheetId="4" r:id="rId3"/>
+    <sheet name="Notation Démo" sheetId="5" r:id="rId4"/>
+    <sheet name="Planning" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$C$1:$C$28</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294963746" uniqueCount="4294967227">
   <si>
     <t>Module</t>
   </si>
@@ -352,13 +355,385 @@
   </si>
   <si>
     <t>Temps estimé (jours)</t>
+  </si>
+  <si>
+    <t>Tache</t>
+  </si>
+  <si>
+    <t>Ajout filtre de recherche en fonction de la catégorie de l'emploi recherché</t>
+  </si>
+  <si>
+    <t>Côté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout catégorie d'emploi dans la création d'une fiche de poste (management, IT, ingénierie, etc) </t>
+  </si>
+  <si>
+    <t>Ajout bouton réfusé, voir profil dans la vue des candidatures</t>
+  </si>
+  <si>
+    <t>Ajout bouton modification profil</t>
+  </si>
+  <si>
+    <t>Ajout bouton retrait candidature</t>
+  </si>
+  <si>
+    <t>Ajout comptage du nombre de candidatures sur un poste et afficher le nombre de candidature sur le poste</t>
+  </si>
+  <si>
+    <t>Critères d'évaluation du PowerPoint Coef 1</t>
+  </si>
+  <si>
+    <t>Equipes =&gt;</t>
+  </si>
+  <si>
+    <t>Page de garde avec titre, noms coéquipiers (1 slide) et le sommaire (1 slide)</t>
+  </si>
+  <si>
+    <t>Qualité de la présentation visuelle et personnalisée des slides.</t>
+  </si>
+  <si>
+    <t>Tableau synthétique de la répartition individuelle des fonctionnalités mise en place par l'équipe 
+pour s'organiser. (1 slide)</t>
+  </si>
+  <si>
+    <t>Diagramme de classes lisible selon les patterns MVC et DAO et présentant les attributs (pas 
+d’attribut objet !), les méthodes, les cardinalités, sans constructeurs ni getters/setters (1 slide 
+ou plus si le diagramme est illisible : par exemple, 1 slide présente l’architecture générale du 
+pattern MVC avec seulement les noms des classes, puis un slide pour chacun des 3 types de
+modules MVC détaillant le contenu des classes).</t>
+  </si>
+  <si>
+    <t>Modèle relationnel de votre base de données (1 slide)</t>
+  </si>
+  <si>
+    <t>Design de la maquette lisible de votre interface graphique composée du storyboard (1 à 2 slides) et des wireframes (au plus 3 slides).</t>
+  </si>
+  <si>
+    <t>Tableau synthétique des bilans individuels (compétences acquises et points d'amélioration 
+individuels) (1 slide). 
+Bilan collectif sur la méthodologie et l'organisation de l'équipe dans ce projet. (1 slide)</t>
+  </si>
+  <si>
+    <t>Preuve de l'utilisation de GitHub par toute l'équipe : lien, nom de l'équipe sur GitHub et screenshots des commits de toute l'équipe, entre autres avec la/les branches et Insights &gt; Pulse et Insights &gt; Contributors pour la majorité sur github classroom. (1 à 2 slides)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Citez vos sources précises : sites web avec tous les liens détaillés y compris les pages BoostCamp
+d'informatique, algorithmes utilisés, livres, supports de cours en citant les auteurs avec une dizaine 
+de sources. Pour chaque source citée, indiquez bien le thème et les références. (1 slide). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toute 
+source non citée est considérée de facto comme un plagiat.</t>
+    </r>
+  </si>
+  <si>
+    <t>Critères d'évaluation de la démo du thème Recrutement Coef 3</t>
+  </si>
+  <si>
+    <r>
+      <t>Qualité de la présentation orale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Clarté dans les explications, cohérence de l’argumentation, cohésion de l’équipe) avec un petit scénario de fonctionnement de votre système préparé à l’avance, en tenant compte des critères suivants et de la durée maximale de présentation de 20 min max.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exigences de mise en œuvre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : pour l'exigence du 100% Java, y compris en cas d’intégration de Framework, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nous tolérons les exceptions suivantes à
+condition à ne pas se limiter pour votre apprentissage du Java à l'utilisation de ces moyens suivants hors Java sans coder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :
+- Pour la librairie graphique Swing, l'utilisation de Form Builder pour designer votre interface graphique.
+- Pour la librairie graphique JavaFX, l'utilisation de Scene Builder pour designer votre interface graphique.
+- L'utilisation du web comme la diffusion de vidéos ou de langage comme XFML généré par JavaFX Scene Builder etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Architecture générale du système (MVC). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Cette architecture générale doit compter principalement les 4 modules suivants :
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Le module Recherche d'informations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: toutes les demandes possibles dans la base de données, selon plusieurs critères de
+recherche, y compris sur plusieurs tables de la BDD avec filtrage des informations autres que le numéro identifiant. Par exemple, le nom de la ville l'achat ou vente de ville du bien immobilier, de la date de visite souhaitées etc. 
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Le module Mise à jour (MAJ) des Données</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : toute opération de modification, d'ajout ou de suppression dans la base de données, avec preuves de mises à jour de la BDD. Pour preuve de la fiabilité de cette MAJ, faire la recherche sur cette table avec filtrage des informations des données mises à jour. Cette MAJ doit également respecter les contraintes d’intégrité référentielle (foreign key)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Le module Data Access Object (DAO)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> interroge ou met à jour les données dans la base de données, via ce module DAO, et
+communique avec les 2 modules précédents.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'Interface graphique (GUI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> communique avec les 2 premiers modules pour visualiser graphiquement les informations
+extraites de la base de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fonctionnalités générales des clients avec preuves d'interaction de votre programme Java avec la Base de Données :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- L'application doit permettre aux demandeurs d'emploi (recruteurs) de parcourir tous les emplois disponibles de différentes catégories. 
+- L'application implique principalement des détails sur les emplois disponibles, leurs caractéristiques ainsi que des dossiers générés et 
+conservés pour les demandeurs d'emploi et les employeurs.
+- Les demandeurs d'emploi pourront postuler à l'emploi qui correspond à leur profil.
+- L’agence de recrutement pourra mettre à jour (ajouter/modifier/supprimer) les nouveaux emplois sur l'application en cas de besoin.
+- Cette agence de recrutement pourra également examiner les candidats qui se sont inscrits sur des postes ainsi que ceux qui ont postulé 
+aux emplois.
+- Les agences de recrutement pourront afficher les emplois demandés avec les employeurs. 
+Cette application doit être développée pour les deux types d'utilisateurs suivants avec un certain nombre de fonctionnalités :
+1. Demandeurs d'emploi (clients) : parcourir les emplois, postuler aux emplois, naviguer dans la disponibilité des emplois, etc.
+2. Agences de recrutement (administrateurs) : Mettre à jour les emplois (ajouter/supprimer/modifier) actuellement disponibles, ajouter/supprimer des postes, examiner les candidats, voir la popularité des postes par les chercheurs d’emploi etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fonctionnalités générales des clients avec preuves d'interaction de votre programme Java avec la Base de Données :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- L'utilisateur (client) doit pouvoir doit pouvoir choisir les offres d'emploi. 
+- Consulter et mettre à jour les informations des tables de votre base de données des offres d'emploi actuellement disponibles.
+ Il y aura deux types de demandeurs d’emploi :
+1) Les nouveaux devront s'inscrire avec un identifiant et un mot de passe. 
+2) Les anciens auront déjà un identifiant et un mot de passe pour se connecter. Les anciens demandeurs d’emploi pourront parcourir 
+l’historique de leurs demandes d’emploi précédentes, avec leurs éventuelles notes. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>La fiabilité, la pertinence, la qualité visuelle, la fluidité et l’ergonomie des informations affichées dans l’interface graphique</t>
+  </si>
+  <si>
+    <t>Originalité et créativité de votre démo incluant votre réel investissement par rapport à d'autres équipes de votre thème.</t>
+  </si>
+  <si>
+    <t>Javadoc commentée avec patterns MVC et DAO</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <t>Exemples de bonus possibles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4 points max) à condition d'avoir rempli les critères précédents même imparfaits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 
+- Autres fonctionnalités originales autres que les fonctionnalités générales sur 2 points max (exemples : mail envoyé au client, et autres fonctionnalités étendues).
+- JFreeChart sur 2 points max (module Reporing du MVC) : statistiques prédéfinies sous formes de graphes (camemberts, histogrammes etc.) dans votre interface graphique
+- Thread pour les statistiques sur 1 point : données mises à jour visualisées en temps réel.
+- etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pas de fenêtre d’accueil permettant à l’utilisateur de se connecter</t>
+  </si>
+  <si>
+    <t>Mises à jour non sauvegardées dans la base de données</t>
+  </si>
+  <si>
+    <t>Pas de pattern MVC ou/et pas de pattern DAO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crash ou/et exécution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF083C92"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>instable</t>
+    </r>
+  </si>
+  <si>
+    <t>Note finale sur 24 (bornée à 20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,16 +749,149 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF083C92"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -406,14 +914,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,6 +1055,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,21 +1350,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="121" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="94.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="94.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +1387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -775,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -792,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -809,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -826,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -849,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -866,7 +1495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -883,7 +1512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -906,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -929,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -952,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -969,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1320,6 +1949,334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49747CC2-9CCF-44D2-AB9A-DE4AB36389C5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F55132-252C-4029-8546-4EDCA27ACD8E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="73.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="135.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="61.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5AE67C-AD8D-4A2B-9949-692C7E798699}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="66.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="20">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E5F719-14BD-4FE5-A358-A0B23E18168B}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -1327,13 +2284,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1341,7 +2298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1349,7 +2306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1357,7 +2314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1365,7 +2322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1373,7 +2330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1381,7 +2338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1389,7 +2346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1397,7 +2354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1405,7 +2362,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1413,7 +2370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1421,7 +2378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1429,7 +2386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1437,7 +2394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1445,7 +2402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1453,7 +2410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1461,7 +2418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>

--- a/TODO_Projet_Java_Updated.xlsx
+++ b/TODO_Projet_Java_Updated.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://poce-my.sharepoint.com/personal/lucas_schwindenhammer_edu_ece_fr/Documents/Ing3/Semestre2/POO Java/projet-java-recrutement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB2EA7C-8E76-465F-BB81-F086AA0F3BEB}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{88235350-D142-4740-9ACC-56B6C973FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3870DE8-9C81-4510-9266-F3BD39A72964}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TODO" sheetId="1" r:id="rId1"/>
-    <sheet name="Reste à faire" sheetId="3" r:id="rId2"/>
-    <sheet name="Notation PowerPoint" sheetId="4" r:id="rId3"/>
-    <sheet name="Notation Démo" sheetId="5" r:id="rId4"/>
-    <sheet name="Planning" sheetId="2" r:id="rId5"/>
+    <sheet name="LIEN POWERPOINT" sheetId="6" r:id="rId1"/>
+    <sheet name="TODO" sheetId="1" r:id="rId2"/>
+    <sheet name="Reste à faire" sheetId="3" r:id="rId3"/>
+    <sheet name="Notation PowerPoint" sheetId="4" r:id="rId4"/>
+    <sheet name="Notation Démo" sheetId="5" r:id="rId5"/>
+    <sheet name="Planning" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$C$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TODO!$C$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294963746" uniqueCount="4294967227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="139">
   <si>
     <t>Module</t>
   </si>
@@ -153,12 +154,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>À compléter</t>
-  </si>
-  <si>
-    <t>Manquant</t>
-  </si>
-  <si>
     <t>À vérifier</t>
   </si>
   <si>
@@ -370,12 +365,6 @@
   </si>
   <si>
     <t>Ajout bouton réfusé, voir profil dans la vue des candidatures</t>
-  </si>
-  <si>
-    <t>Ajout bouton modification profil</t>
-  </si>
-  <si>
-    <t>Ajout bouton retrait candidature</t>
   </si>
   <si>
     <t>Ajout comptage du nombre de candidatures sur un poste et afficher le nombre de candidature sur le poste</t>
@@ -728,12 +717,21 @@
   <si>
     <t>Note finale sur 24 (bornée à 20)</t>
   </si>
+  <si>
+    <t>https://poce-my.sharepoint.com/:p:/g/personal/maxime_delplace_edu_ece_fr/EVqPIiXTuDhAoCGLPn36VrsBQ0YEMGndAir2ZYsn1JG8Ew?e=Oix8az</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>https://poce-my.sharepoint.com/:p:/g/personal/julien_bitschenauxdurand_edu_ece_fr/EeZO0dO9lYpJsj8XuQnFAooBU-PJ2FbRcP7tJ7DEdi1BYw?e=sumBMr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,6 +832,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -975,10 +997,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1040,8 +1063,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1055,10 +1082,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1347,24 +1370,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE89F09-070A-4D6C-AB93-5069CEF1F743}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="141.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{7DA0D216-EAA7-4B69-93B5-8892FE977CD9}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EABE9A13-F5D3-D74C-92FA-EF6481EEF2DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="121" workbookViewId="0">
+    <sheetView zoomScale="121" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="94.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,16 +1437,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1398,13 +1457,16 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1415,13 +1477,16 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1432,13 +1497,16 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1449,13 +1517,16 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1466,19 +1537,19 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1489,13 +1560,16 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1506,13 +1580,16 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1523,19 +1600,19 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1546,19 +1623,19 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1566,22 +1643,22 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1592,13 +1669,16 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1609,19 +1689,19 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1632,19 +1712,19 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1652,22 +1732,22 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1675,22 +1755,22 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1701,13 +1781,16 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1718,13 +1801,16 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1732,22 +1818,22 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1758,19 +1844,19 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1778,22 +1864,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1801,22 +1887,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1827,13 +1913,16 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1844,13 +1933,16 @@
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1858,22 +1950,22 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1881,13 +1973,13 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
         <v>57</v>
@@ -1896,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1904,22 +1996,22 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1927,16 +2019,16 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1948,189 +2040,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49747CC2-9CCF-44D2-AB9A-DE4AB36389C5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F55132-252C-4029-8546-4EDCA27ACD8E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="76.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F55132-252C-4029-8546-4EDCA27ACD8E}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="73.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="135.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="61.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5AE67C-AD8D-4A2B-9949-692C7E798699}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -2138,134 +2236,134 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.88671875" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="249" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="231" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="307.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B11" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" s="17">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" s="17">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" s="17">
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" s="17">
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" s="20">
         <v>20</v>
@@ -2276,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E5F719-14BD-4FE5-A358-A0B23E18168B}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2284,146 +2382,146 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
